--- a/biology/Zoologie/Indirana_tenuilingua/Indirana_tenuilingua.xlsx
+++ b/biology/Zoologie/Indirana_tenuilingua/Indirana_tenuilingua.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Indirana tenuilingua est une espèce d'amphibiens de la famille des Ranixalidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indirana tenuilingua est une espèce d'amphibiens de la famille des Ranixalidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'État du Karnataka en Inde. Elle a été découverte dans un lieu nommé « Kempholey, Hassan » à une altitude d'environ 400 m dans les Ghâts occidentaux[1]. 
-Aucune population n'est actuellement connue à l'état sauvage[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'État du Karnataka en Inde. Elle a été découverte dans un lieu nommé « Kempholey, Hassan » à une altitude d'environ 400 m dans les Ghâts occidentaux. 
+Aucune population n'est actuellement connue à l'état sauvage.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de cette espèce ayant été égaré, la désignation d'un néotype est nécessaire[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de cette espèce ayant été égaré, la désignation d'un néotype est nécessaire.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rao, 1937 : On some new forms of Batrachia from south India. Proceedings of the Indian Academy of Sciences, ser. B, vol. 6, p. 387-427.</t>
         </is>
